--- a/Excel Info.xlsx
+++ b/Excel Info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mfuta\Documents\GitHub\backEnd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E9BD29AD-1BE7-467D-9682-C1A98B5A34DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E585B9F-3CD4-48C6-A370-B3C290F93627}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5010" yWindow="2450" windowWidth="18050" windowHeight="7780" xr2:uid="{526B9C8C-2EA3-457F-B26C-05EC9913D29A}"/>
   </bookViews>
@@ -31,6 +31,17 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -64,8 +75,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -380,12 +392,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63F3B00D-97EE-46B1-9016-114EB95381F3}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>44093</v>
+      </c>
+      <c r="B2">
+        <v>1000</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>